--- a/federal/federal_2015_2016.xlsx
+++ b/federal/federal_2015_2016.xlsx
@@ -412,13 +412,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.195</v>
+        <v>0.137</v>
       </c>
       <c r="B2">
-        <v>7.573</v>
+        <v>4.385</v>
       </c>
       <c r="C2">
-        <v>0.815</v>
+        <v>0.862</v>
       </c>
     </row>
   </sheetData>
@@ -447,13 +447,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2">
-        <v>0.067</v>
+        <v>0.032</v>
       </c>
       <c r="B2">
-        <v>1.761</v>
+        <v>1.255</v>
       </c>
       <c r="C2">
-        <v>0.819</v>
+        <v>0.858</v>
       </c>
     </row>
   </sheetData>
@@ -485,16 +485,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2">
-        <v>-0.017</v>
+        <v>-0.053</v>
       </c>
       <c r="B2">
-        <v>0.548</v>
+        <v>0.377</v>
       </c>
       <c r="C2">
-        <v>11831.43</v>
+        <v>18112.6</v>
       </c>
       <c r="D2">
-        <v>0.128</v>
+        <v>0.127</v>
       </c>
     </row>
   </sheetData>
